--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\710\MMF\MMF 2025H RM Lab, Robo Advisor\robo_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A76ED3-EEA2-42D3-8177-7E9C1A4249FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527D8E7-5904-400A-9AD5-02DFAB790EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,476 +334,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="3629025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5143500" cy="3629025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5143500" cy="3629025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5143500" cy="3562350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8229600" cy="4114800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5143500" cy="3562350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7124700" cy="3429000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4114800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="4114800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5486400" cy="3771900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10972800" cy="5486400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="10972800" cy="5486400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9601200" cy="4800600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,7 +602,7 @@
   <dimension ref="A3:AY43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,17 +647,13 @@
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
-        <v>42461</v>
-      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
-        <v>44347</v>
-      </c>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="2:38" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
@@ -1138,27 +664,21 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
-        <v>9.7299999999999998E-2</v>
-      </c>
+      <c r="C8" s="10"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
-        <v>0.1132</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.1048</v>
-      </c>
+      <c r="C10" s="10"/>
       <c r="F10" s="7"/>
       <c r="AK10" s="19" t="s">
         <v>8</v>
@@ -1169,71 +689,51 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
-        <v>9.3600000000000003E-2</v>
-      </c>
+      <c r="C11" s="10"/>
       <c r="AK11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AL11" s="16">
-        <v>0.19</v>
-      </c>
+      <c r="AL11" s="16"/>
     </row>
     <row r="12" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10">
-        <v>9.6699999999999994E-2</v>
-      </c>
+      <c r="C12" s="10"/>
       <c r="AK12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL12" s="16">
-        <v>10.16</v>
-      </c>
+      <c r="AL12" s="16"/>
     </row>
     <row r="13" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.84470000000000001</v>
-      </c>
+      <c r="C13" s="10"/>
       <c r="AK13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AL13" s="16">
-        <v>0.95</v>
-      </c>
+      <c r="AL13" s="16"/>
     </row>
     <row r="14" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11">
-        <v>2.23</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="AK14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AL14" s="16">
-        <v>1.94</v>
-      </c>
+      <c r="AL14" s="16"/>
     </row>
     <row r="15" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11">
-        <v>1.06</v>
-      </c>
+      <c r="C15" s="11"/>
       <c r="AK15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AL15" s="16">
-        <v>2.38</v>
-      </c>
+      <c r="AL15" s="16"/>
     </row>
     <row r="16" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
@@ -1241,53 +741,39 @@
       <c r="AK16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AL16" s="16">
-        <v>58.61</v>
-      </c>
+      <c r="AL16" s="16"/>
     </row>
     <row r="17" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11">
-        <v>0.7</v>
-      </c>
+      <c r="C17" s="11"/>
       <c r="AK17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AL17" s="16">
-        <v>8.57</v>
-      </c>
+      <c r="AL17" s="16"/>
     </row>
     <row r="18" spans="2:38" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="10">
-        <v>0.35659999999999997</v>
-      </c>
+      <c r="C18" s="10"/>
       <c r="AK18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL18" s="16">
-        <v>17.190000000000001</v>
-      </c>
+      <c r="AL18" s="16"/>
     </row>
     <row r="19" spans="2:38" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10">
-        <v>-0.10970000000000001</v>
-      </c>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="2:38" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="12"/>
@@ -1296,17 +782,13 @@
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="11">
-        <v>5.3952799999999996</v>
-      </c>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="13">
-        <v>0.30514999999999998</v>
-      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.35">
@@ -1324,45 +806,29 @@
       <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="8">
-        <v>1.15E-2</v>
-      </c>
-      <c r="D25">
-        <v>3364.76</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8">
-        <v>1.32E-2</v>
-      </c>
-      <c r="D26">
-        <v>3866.97</v>
-      </c>
+      <c r="C26" s="8"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="8">
-        <v>3.44E-2</v>
-      </c>
-      <c r="D27">
-        <v>10073.32</v>
-      </c>
+      <c r="C27" s="8"/>
+      <c r="D27"/>
     </row>
     <row r="28" spans="2:38" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="8">
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="D28">
-        <v>11661.44</v>
-      </c>
+      <c r="C28" s="8"/>
+      <c r="D28"/>
     </row>
     <row r="30" spans="2:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK30" s="19" t="s">
@@ -1374,65 +840,49 @@
       <c r="AK31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AL31" s="16">
-        <v>3.48</v>
-      </c>
+      <c r="AL31" s="16"/>
     </row>
     <row r="32" spans="2:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL32" s="16">
-        <v>7.49</v>
-      </c>
+      <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AL33" s="16">
-        <v>6.39</v>
-      </c>
+      <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AL34" s="16">
-        <v>6.46</v>
-      </c>
+      <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AL35" s="16">
-        <v>8.34</v>
-      </c>
+      <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AL36" s="16">
-        <v>14.37</v>
-      </c>
+      <c r="AL36" s="16"/>
     </row>
     <row r="37" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK37" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AL37" s="16">
-        <v>13.94</v>
-      </c>
+      <c r="AL37" s="16"/>
     </row>
     <row r="38" spans="37:38" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AK38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AL38" s="16">
-        <v>39.51</v>
-      </c>
+      <c r="AL38" s="16"/>
     </row>
     <row r="39" spans="37:38" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="37:38" ht="22" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1446,6 +896,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\710\MMF\MMF 2025H RM Lab, Robo Advisor\robo_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B527D8E7-5904-400A-9AD5-02DFAB790EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C838A11B-8EDC-4567-AA69-3FF73A2298E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,10 +315,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +602,7 @@
   <dimension ref="A3:AY43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,10 +890,6 @@
     <row r="42" spans="37:38" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="37:38" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AK30:AL30"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
